--- a/HMP1-2_oral_file_manifest_sample_ordered.xlsx
+++ b/HMP1-2_oral_file_manifest_sample_ordered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5261b2f2f3e51194/Desktop/GitHub/demo_for_ccgb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:40009_{CBA161DB-F2C7-4F07-B72D-33F021730ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9C2086-6303-41EC-90E7-CFD703ED2C9F}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:40009_{CBA161DB-F2C7-4F07-B72D-33F021730ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E8CC1D3-ECF7-439C-90E0-F2FF3922C026}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2580" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5640" yWindow="3180" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HMP1-2_oral_file_manifest_sampl" sheetId="1" r:id="rId1"/>
@@ -6521,8 +6521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6530,7 +6530,7 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -15482,7 +15482,7 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G380">
-      <sortCondition ref="E1"/>
+      <sortCondition ref="G1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HMP1-2_oral_file_manifest_sample_ordered.xlsx
+++ b/HMP1-2_oral_file_manifest_sample_ordered.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5261b2f2f3e51194/Desktop/GitHub/demo_for_ccgb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:40009_{CBA161DB-F2C7-4F07-B72D-33F021730ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E8CC1D3-ECF7-439C-90E0-F2FF3922C026}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:40009_{CBA161DB-F2C7-4F07-B72D-33F021730ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CE2D0A4-0264-452A-8E3E-1E12289DACB5}"/>
   <bookViews>
-    <workbookView xWindow="-5640" yWindow="3180" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31530" yWindow="5100" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HMP1-2_oral_file_manifest_sampl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HMP1-2_oral_file_manifest_sampl'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HMP1-2_oral_file_manifest_sampl'!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1864">
   <si>
     <t>file_id</t>
   </si>
@@ -5622,20 +5622,17 @@
     <t>Index</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>visit_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5770,8 +5767,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5993,6 +5996,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -6154,7 +6181,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -6164,6 +6191,11 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6521,21 +6553,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6557,8 +6590,14 @@
       <c r="G1" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -6580,8 +6619,14 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>158458797</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -6603,8 +6648,14 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>158499257</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -6626,8 +6677,14 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>158742018</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1606</v>
       </c>
@@ -6649,11 +6706,14 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>158944319</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -6675,11 +6735,14 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>158337416</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1513</v>
       </c>
@@ -6701,8 +6764,14 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="9">
+        <v>158883629</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>953</v>
       </c>
@@ -6724,8 +6793,14 @@
       <c r="G8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>158802708</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1690</v>
       </c>
@@ -6747,8 +6822,14 @@
       <c r="G9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <v>159591683</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1613</v>
       </c>
@@ -6770,11 +6851,14 @@
       <c r="G10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <v>159207311</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -6796,11 +6880,14 @@
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <v>159268001</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1836</v>
       </c>
@@ -6822,8 +6909,14 @@
       <c r="G12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="9">
+        <v>159571453</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6845,8 +6938,14 @@
       <c r="G13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="10">
+        <v>763435843</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -6868,8 +6967,14 @@
       <c r="G14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="8">
+        <v>763496533</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -6891,8 +6996,14 @@
       <c r="G15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="10">
+        <v>763820215</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>341</v>
       </c>
@@ -6914,8 +7025,14 @@
       <c r="G16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>763577454</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1092</v>
       </c>
@@ -6937,8 +7054,14 @@
       <c r="G17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>763638144</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>324</v>
       </c>
@@ -6960,8 +7083,14 @@
       <c r="G18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="11">
+        <v>763840445</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -6983,8 +7112,14 @@
       <c r="G19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="10">
+        <v>763961826</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>827</v>
       </c>
@@ -7006,8 +7141,14 @@
       <c r="G20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="9">
+        <v>763921366</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1814</v>
       </c>
@@ -7029,8 +7170,14 @@
       <c r="G21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>763860675</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -7052,11 +7199,14 @@
       <c r="G22">
         <v>21</v>
       </c>
-      <c r="H22" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <v>763901136</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -7078,11 +7228,14 @@
       <c r="G23">
         <v>22</v>
       </c>
-      <c r="H23" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <v>763577454</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -7104,11 +7257,14 @@
       <c r="G24">
         <v>23</v>
       </c>
-      <c r="H24" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <v>763901136</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1611</v>
       </c>
@@ -7130,11 +7286,14 @@
       <c r="G25">
         <v>24</v>
       </c>
-      <c r="H25" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="9">
+        <v>763759525</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1739</v>
       </c>
@@ -7156,8 +7315,14 @@
       <c r="G26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="11">
+        <v>763982056</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1732</v>
       </c>
@@ -7179,8 +7344,14 @@
       <c r="G27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>764042746</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1757</v>
       </c>
@@ -7202,8 +7373,14 @@
       <c r="G28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="9">
+        <v>764083206</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -7225,8 +7402,14 @@
       <c r="G29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>764285508</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1231</v>
       </c>
@@ -7248,8 +7431,14 @@
       <c r="G30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>764346198</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>334</v>
       </c>
@@ -7271,8 +7460,14 @@
       <c r="G31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="9">
+        <v>764487809</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>440</v>
       </c>
@@ -7294,11 +7489,14 @@
       <c r="G32">
         <v>31</v>
       </c>
-      <c r="H32" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>764467579</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>240</v>
       </c>
@@ -7320,11 +7518,14 @@
       <c r="G33">
         <v>32</v>
       </c>
-      <c r="H33" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <v>764224817</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -7346,8 +7547,14 @@
       <c r="G34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="10">
+        <v>763435843</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -7369,8 +7576,14 @@
       <c r="G35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="9">
+        <v>764305738</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -7392,8 +7605,14 @@
       <c r="G36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="9">
+        <v>764305738</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1697</v>
       </c>
@@ -7415,8 +7634,14 @@
       <c r="G37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>764447348</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1802</v>
       </c>
@@ -7438,8 +7663,14 @@
       <c r="G38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="10">
+        <v>764508039</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1807</v>
       </c>
@@ -7461,8 +7692,14 @@
       <c r="G39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="10">
+        <v>764508039</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -7484,8 +7721,14 @@
       <c r="G40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>764588959</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>370</v>
       </c>
@@ -7507,8 +7750,14 @@
       <c r="G41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <v>764649650</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1759</v>
       </c>
@@ -7530,8 +7779,14 @@
       <c r="G42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="10">
+        <v>765074482</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1764</v>
       </c>
@@ -7553,8 +7808,14 @@
       <c r="G43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="10">
+        <v>765074482</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>218</v>
       </c>
@@ -7576,8 +7837,14 @@
       <c r="G44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>159632143</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -7599,8 +7866,14 @@
       <c r="G45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="2">
+        <v>159753524</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -7622,11 +7895,14 @@
       <c r="G46">
         <v>45</v>
       </c>
-      <c r="H46" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="2">
+        <v>159753524</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>290</v>
       </c>
@@ -7648,11 +7924,14 @@
       <c r="G47">
         <v>46</v>
       </c>
-      <c r="H47" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>159915365</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>992</v>
       </c>
@@ -7674,8 +7953,14 @@
       <c r="G48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>160036745</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>544</v>
       </c>
@@ -7697,11 +7982,14 @@
       <c r="G49">
         <v>48</v>
       </c>
-      <c r="H49" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="2">
+        <v>160421117</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>339</v>
       </c>
@@ -7723,11 +8011,14 @@
       <c r="G50">
         <v>49</v>
       </c>
-      <c r="H50" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="9">
+        <v>159490532</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>398</v>
       </c>
@@ -7749,8 +8040,14 @@
       <c r="G51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="9">
+        <v>159611913</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -7772,8 +8069,14 @@
       <c r="G52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="2">
+        <v>159551223</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -7795,11 +8098,14 @@
       <c r="G53">
         <v>52</v>
       </c>
-      <c r="H53" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="9">
+        <v>159814214</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>633</v>
       </c>
@@ -7821,11 +8127,14 @@
       <c r="G54">
         <v>53</v>
       </c>
-      <c r="H54" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>160340197</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>789</v>
       </c>
@@ -7847,8 +8156,14 @@
       <c r="G55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>160481808</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>316</v>
       </c>
@@ -7870,11 +8185,14 @@
       <c r="G56">
         <v>55</v>
       </c>
-      <c r="H56" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="2">
+        <v>160319967</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1638</v>
       </c>
@@ -7896,11 +8214,14 @@
       <c r="G57">
         <v>56</v>
       </c>
-      <c r="H57" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="2">
+        <v>160502038</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>822</v>
       </c>
@@ -7922,8 +8243,14 @@
       <c r="G58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>160461578</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>275</v>
       </c>
@@ -7945,8 +8272,14 @@
       <c r="G59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="2">
+        <v>160582958</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1022</v>
       </c>
@@ -7968,8 +8301,14 @@
       <c r="G60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>160542498</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>252</v>
       </c>
@@ -7991,8 +8330,14 @@
       <c r="G61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="9">
+        <v>160603188</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1724</v>
       </c>
@@ -8014,8 +8359,14 @@
       <c r="G62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="2">
+        <v>160158126</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -8037,8 +8388,14 @@
       <c r="G63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="2">
+        <v>160380657</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1768</v>
       </c>
@@ -8060,8 +8417,14 @@
       <c r="G64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="9">
+        <v>160178356</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1831</v>
       </c>
@@ -8083,11 +8446,14 @@
       <c r="G65">
         <v>64</v>
       </c>
-      <c r="H65" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>160218816</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -8109,11 +8475,14 @@
       <c r="G66">
         <v>65</v>
       </c>
-      <c r="H66" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="11">
+        <v>765094712</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -8135,8 +8504,14 @@
       <c r="G67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="11">
+        <v>765094712</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>943</v>
       </c>
@@ -8158,8 +8533,14 @@
       <c r="G68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="12">
+        <v>765155402</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1710</v>
       </c>
@@ -8181,11 +8562,14 @@
       <c r="G69">
         <v>68</v>
       </c>
-      <c r="H69" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="2">
+        <v>765013792</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>652</v>
       </c>
@@ -8207,11 +8591,14 @@
       <c r="G70">
         <v>69</v>
       </c>
-      <c r="H70" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="2">
+        <v>765195863</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1705</v>
       </c>
@@ -8233,8 +8620,14 @@
       <c r="G71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="2">
+        <v>765013792</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -8256,8 +8649,14 @@
       <c r="G72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="8">
+        <v>765135172</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -8279,8 +8678,14 @@
       <c r="G73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="8">
+        <v>765135172</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>479</v>
       </c>
@@ -8302,8 +8707,14 @@
       <c r="G74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="10">
+        <v>765256553</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>711</v>
       </c>
@@ -8325,8 +8736,14 @@
       <c r="G75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="11">
+        <v>765276783</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1841</v>
       </c>
@@ -8348,8 +8765,14 @@
       <c r="G76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="9">
+        <v>764305738</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1670</v>
       </c>
@@ -8371,8 +8794,14 @@
       <c r="G77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="10">
+        <v>763961826</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1662</v>
       </c>
@@ -8394,8 +8823,14 @@
       <c r="G78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="9">
+        <v>764083206</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -8417,8 +8852,14 @@
       <c r="G79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="8">
+        <v>763496533</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1440</v>
       </c>
@@ -8440,11 +8881,14 @@
       <c r="G80">
         <v>79</v>
       </c>
-      <c r="H80" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H80" s="9">
+        <v>765398164</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1744</v>
       </c>
@@ -8466,11 +8910,14 @@
       <c r="G81">
         <v>80</v>
       </c>
-      <c r="H81" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="9">
+        <v>765034022</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>455</v>
       </c>
@@ -8492,8 +8939,14 @@
       <c r="G82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="2">
+        <v>765377934</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1646</v>
       </c>
@@ -8515,8 +8968,14 @@
       <c r="G83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="12">
+        <v>765337473</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1648</v>
       </c>
@@ -8538,8 +8997,14 @@
       <c r="G84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="12">
+        <v>765337473</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1633</v>
       </c>
@@ -8561,11 +9026,14 @@
       <c r="G85">
         <v>84</v>
       </c>
-      <c r="H85" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>765560005</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1425</v>
       </c>
@@ -8587,11 +9055,14 @@
       <c r="G86">
         <v>85</v>
       </c>
-      <c r="H86" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="10">
+        <v>765519544</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>539</v>
       </c>
@@ -8613,8 +9084,14 @@
       <c r="G87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="8">
+        <v>765317243</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1800</v>
       </c>
@@ -8636,8 +9113,14 @@
       <c r="G88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="2">
+        <v>765620695</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1518</v>
       </c>
@@ -8659,11 +9142,14 @@
       <c r="G89">
         <v>88</v>
       </c>
-      <c r="H89" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="11">
+        <v>765539774</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1563</v>
       </c>
@@ -8685,11 +9171,14 @@
       <c r="G90">
         <v>89</v>
       </c>
-      <c r="H90" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>765661155</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -8711,8 +9200,14 @@
       <c r="G91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>764892411</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>208</v>
       </c>
@@ -8734,8 +9229,14 @@
       <c r="G92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>160643649</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -8757,11 +9258,14 @@
       <c r="G93">
         <v>92</v>
       </c>
-      <c r="H93" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>160400887</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1851</v>
       </c>
@@ -8783,11 +9287,14 @@
       <c r="G94">
         <v>93</v>
       </c>
-      <c r="H94" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>160704339</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1077</v>
       </c>
@@ -8809,8 +9316,14 @@
       <c r="G95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>160684109</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>326</v>
       </c>
@@ -8832,8 +9345,14 @@
       <c r="G96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>160765029</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -8855,8 +9374,14 @@
       <c r="G97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>158479027</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1749</v>
       </c>
@@ -8878,8 +9403,14 @@
       <c r="G98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>158256496</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -8901,8 +9432,14 @@
       <c r="G99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="2">
+        <v>158337416</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1821</v>
       </c>
@@ -8924,8 +9461,14 @@
       <c r="G100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="11">
+        <v>638754422</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -8947,8 +9490,14 @@
       <c r="G101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="2">
+        <v>809635352</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1846</v>
       </c>
@@ -8970,8 +9519,14 @@
       <c r="G102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="2">
+        <v>158499257</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -8993,8 +9548,14 @@
       <c r="G103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="9">
+        <v>370425937</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1717</v>
       </c>
@@ -9016,8 +9577,14 @@
       <c r="G104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="2">
+        <v>246515023</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1787</v>
       </c>
@@ -9039,8 +9606,14 @@
       <c r="G105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="2">
+        <v>158802708</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>177</v>
       </c>
@@ -9062,8 +9635,14 @@
       <c r="G106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>159005010</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>302</v>
       </c>
@@ -9085,8 +9664,14 @@
       <c r="G107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="9">
+        <v>158883629</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1657</v>
       </c>
@@ -9108,8 +9693,14 @@
       <c r="G108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="2">
+        <v>159268001</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>393</v>
       </c>
@@ -9131,8 +9722,14 @@
       <c r="G109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>159369152</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>277</v>
       </c>
@@ -9154,8 +9751,14 @@
       <c r="G110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>159247771</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -9177,8 +9780,14 @@
       <c r="G111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="2">
+        <v>159207311</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1775</v>
       </c>
@@ -9200,8 +9809,14 @@
       <c r="G112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="2">
+        <v>158944319</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1631</v>
       </c>
@@ -9223,8 +9838,14 @@
       <c r="G113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="2">
+        <v>159551223</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -9246,8 +9867,14 @@
       <c r="G114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>159713063</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>368</v>
       </c>
@@ -9269,8 +9896,14 @@
       <c r="G115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="9">
+        <v>159571453</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>866</v>
       </c>
@@ -9292,8 +9925,14 @@
       <c r="G116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="2">
+        <v>159389382</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -9315,8 +9954,14 @@
       <c r="G117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="2">
+        <v>159591683</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>410</v>
       </c>
@@ -9338,8 +9983,14 @@
       <c r="G118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="9">
+        <v>159611913</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>895</v>
       </c>
@@ -9361,8 +10012,14 @@
       <c r="G119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="2">
+        <v>160582958</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>363</v>
       </c>
@@ -9384,8 +10041,14 @@
       <c r="G120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="11">
+        <v>686765762</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>832</v>
       </c>
@@ -9407,8 +10070,14 @@
       <c r="G121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="9">
+        <v>289996019</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>400</v>
       </c>
@@ -9430,8 +10099,14 @@
       <c r="G122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="9">
+        <v>675950834</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>447</v>
       </c>
@@ -9453,8 +10128,14 @@
       <c r="G123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="9">
+        <v>159814214</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -9476,8 +10157,14 @@
       <c r="G124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="9">
+        <v>604812005</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>216</v>
       </c>
@@ -9499,8 +10186,14 @@
       <c r="G125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="10">
+        <v>763820215</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>405</v>
       </c>
@@ -9522,8 +10215,14 @@
       <c r="G126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="11">
+        <v>765094712</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>349</v>
       </c>
@@ -9545,8 +10244,14 @@
       <c r="G127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="9">
+        <v>823052294</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>199</v>
       </c>
@@ -9568,8 +10273,14 @@
       <c r="G128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="2">
+        <v>508703490</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>623</v>
       </c>
@@ -9591,8 +10302,14 @@
       <c r="G129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="9">
+        <v>160178356</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1859</v>
       </c>
@@ -9614,8 +10331,14 @@
       <c r="G130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>404239096</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1719</v>
       </c>
@@ -9637,8 +10360,14 @@
       <c r="G131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>861967750</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>282</v>
       </c>
@@ -9660,8 +10389,14 @@
       <c r="G132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>706846339</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1297</v>
       </c>
@@ -9683,8 +10418,14 @@
       <c r="G133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="9">
+        <v>160603188</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1734</v>
       </c>
@@ -9706,8 +10447,14 @@
       <c r="G134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="9">
+        <v>763759525</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>125</v>
       </c>
@@ -9729,8 +10476,14 @@
       <c r="G135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="9">
+        <v>604812005</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1819</v>
       </c>
@@ -9752,8 +10505,14 @@
       <c r="G136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="9">
+        <v>159490532</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>489</v>
       </c>
@@ -9775,8 +10534,14 @@
       <c r="G137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>763698834</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>353</v>
       </c>
@@ -9798,8 +10563,14 @@
       <c r="G138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="9">
+        <v>823052294</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>260</v>
       </c>
@@ -9821,8 +10592,14 @@
       <c r="G139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>764325968</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1082</v>
       </c>
@@ -9844,8 +10621,14 @@
       <c r="G140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="9">
+        <v>355657046</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>450</v>
       </c>
@@ -9867,8 +10650,14 @@
       <c r="G141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="2">
+        <v>160421117</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1679</v>
       </c>
@@ -9890,8 +10679,14 @@
       <c r="G142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="10">
+        <v>550534656</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1700</v>
       </c>
@@ -9913,8 +10708,14 @@
       <c r="G143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="2">
+        <v>338793263</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1361</v>
       </c>
@@ -9936,8 +10737,14 @@
       <c r="G144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>393523607</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>192</v>
       </c>
@@ -9959,8 +10766,14 @@
       <c r="G145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="9">
+        <v>765701615</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>842</v>
       </c>
@@ -9982,8 +10795,14 @@
       <c r="G146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>643185023</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>583</v>
       </c>
@@ -10005,11 +10824,14 @@
       <c r="G147">
         <v>146</v>
       </c>
-      <c r="H147" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="2">
+        <v>160319967</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>179</v>
       </c>
@@ -10031,11 +10853,14 @@
       <c r="G148">
         <v>147</v>
       </c>
-      <c r="H148" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H148" s="11">
+        <v>638754422</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>608</v>
       </c>
@@ -10057,8 +10882,14 @@
       <c r="G149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H149" s="2">
+        <v>160502038</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>69</v>
       </c>
@@ -10080,8 +10911,14 @@
       <c r="G150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H150" s="9">
+        <v>370425937</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>267</v>
       </c>
@@ -10103,8 +10940,14 @@
       <c r="G151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>764811490</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>74</v>
       </c>
@@ -10126,8 +10969,14 @@
       <c r="G152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="2">
+        <v>159753524</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1652</v>
       </c>
@@ -10149,8 +10998,14 @@
       <c r="G153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H153" s="2">
+        <v>160158126</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -10172,8 +11027,14 @@
       <c r="G154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H154" s="2">
+        <v>764224817</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1621</v>
       </c>
@@ -10195,8 +11056,14 @@
       <c r="G155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="2">
+        <v>737052003</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1675</v>
       </c>
@@ -10218,8 +11085,14 @@
       <c r="G156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H156" s="10">
+        <v>550534656</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>79</v>
       </c>
@@ -10241,8 +11114,14 @@
       <c r="G157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H157" s="2">
+        <v>159753524</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>933</v>
       </c>
@@ -10264,8 +11143,14 @@
       <c r="G158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H158" s="2">
+        <v>160380657</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>380</v>
       </c>
@@ -10287,8 +11172,14 @@
       <c r="G159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>764143897</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>355</v>
       </c>
@@ -10310,11 +11201,14 @@
       <c r="G160">
         <v>159</v>
       </c>
-      <c r="H160" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="2">
+        <v>246515023</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1598</v>
       </c>
@@ -10336,11 +11230,14 @@
       <c r="G161">
         <v>160</v>
       </c>
-      <c r="H161" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>765640925</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1499</v>
       </c>
@@ -10362,8 +11259,14 @@
       <c r="G162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="10">
+        <v>184349034</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>856</v>
       </c>
@@ -10385,11 +11288,14 @@
       <c r="G163">
         <v>162</v>
       </c>
-      <c r="H163" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="10">
+        <v>612472597</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>706</v>
       </c>
@@ -10411,11 +11317,14 @@
       <c r="G164">
         <v>163</v>
       </c>
-      <c r="H164" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>159146620</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1795</v>
       </c>
@@ -10437,8 +11346,14 @@
       <c r="G165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="9">
+        <v>764487809</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>196</v>
       </c>
@@ -10460,8 +11375,14 @@
       <c r="G166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="2">
+        <v>508703490</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -10483,11 +11404,14 @@
       <c r="G167">
         <v>166</v>
       </c>
-      <c r="H167" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="2">
+        <v>764062976</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -10509,11 +11433,14 @@
       <c r="G168">
         <v>167</v>
       </c>
-      <c r="H168" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>763536994</v>
+      </c>
+      <c r="I168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>885</v>
       </c>
@@ -10535,8 +11462,14 @@
       <c r="G169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="9">
+        <v>289996019</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1829</v>
       </c>
@@ -10558,11 +11491,14 @@
       <c r="G170">
         <v>169</v>
       </c>
-      <c r="H170" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="11">
+        <v>763840445</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>460</v>
       </c>
@@ -10584,11 +11520,14 @@
       <c r="G171">
         <v>170</v>
       </c>
-      <c r="H171" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>159510762</v>
+      </c>
+      <c r="I171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1326</v>
       </c>
@@ -10610,11 +11549,14 @@
       <c r="G172">
         <v>171</v>
       </c>
-      <c r="H172" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="11">
+        <v>875002022</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1017</v>
       </c>
@@ -10636,8 +11578,14 @@
       <c r="G173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="9">
+        <v>763395383</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1191</v>
       </c>
@@ -10659,8 +11607,14 @@
       <c r="G174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>809362576</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>529</v>
       </c>
@@ -10682,8 +11636,14 @@
       <c r="G175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>561079058</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>45</v>
       </c>
@@ -10705,8 +11665,14 @@
       <c r="G176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="2">
+        <v>764062976</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>861</v>
       </c>
@@ -10728,8 +11694,14 @@
       <c r="G177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="9">
+        <v>764750800</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1166</v>
       </c>
@@ -10751,8 +11723,14 @@
       <c r="G178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H178" s="2">
+        <v>103092734</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>311</v>
       </c>
@@ -10774,8 +11752,14 @@
       <c r="G179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H179" s="2">
+        <v>763901136</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>588</v>
       </c>
@@ -10797,8 +11781,14 @@
       <c r="G180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H180" s="2">
+        <v>663835652</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>375</v>
       </c>
@@ -10820,8 +11810,14 @@
       <c r="G181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H181" s="11">
+        <v>686765762</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1623</v>
       </c>
@@ -10843,8 +11839,14 @@
       <c r="G182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H182" s="2">
+        <v>809635352</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>682</v>
       </c>
@@ -10866,8 +11868,14 @@
       <c r="G183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H183" s="2">
+        <v>160421117</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1067</v>
       </c>
@@ -10889,8 +11897,14 @@
       <c r="G184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H184" s="2">
+        <v>160380657</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>754</v>
       </c>
@@ -10912,8 +11926,14 @@
       <c r="G185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H185" s="9">
+        <v>160178356</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1156</v>
       </c>
@@ -10935,8 +11955,14 @@
       <c r="G186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H186" s="9">
+        <v>160603188</v>
+      </c>
+      <c r="I186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1681</v>
       </c>
@@ -10958,8 +11984,14 @@
       <c r="G187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H187" s="9">
+        <v>158883629</v>
+      </c>
+      <c r="I187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1686</v>
       </c>
@@ -10981,8 +12013,14 @@
       <c r="G188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H188" s="9">
+        <v>158883629</v>
+      </c>
+      <c r="I188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1087</v>
       </c>
@@ -11004,8 +12042,14 @@
       <c r="G189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>367712035</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1111</v>
       </c>
@@ -11027,8 +12071,14 @@
       <c r="G190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H190" s="9">
+        <v>763921366</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>598</v>
       </c>
@@ -11050,8 +12100,14 @@
       <c r="G191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>488228756</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1317</v>
       </c>
@@ -11073,11 +12129,14 @@
       <c r="G192">
         <v>191</v>
       </c>
-      <c r="H192" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H192" s="11">
+        <v>763456073</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1312</v>
       </c>
@@ -11099,11 +12158,14 @@
       <c r="G193">
         <v>192</v>
       </c>
-      <c r="H193" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H193" s="11">
+        <v>763456073</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>514</v>
       </c>
@@ -11125,8 +12187,14 @@
       <c r="G194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H194" s="8">
+        <v>884419868</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1072</v>
       </c>
@@ -11148,11 +12216,14 @@
       <c r="G195">
         <v>194</v>
       </c>
-      <c r="H195" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>991168867</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>958</v>
       </c>
@@ -11174,11 +12245,14 @@
       <c r="G196">
         <v>195</v>
       </c>
-      <c r="H196" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H196" s="2">
+        <v>765195863</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>638</v>
       </c>
@@ -11200,8 +12274,14 @@
       <c r="G197">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>993302508</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1211</v>
       </c>
@@ -11223,11 +12303,14 @@
       <c r="G198">
         <v>197</v>
       </c>
-      <c r="H198" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H198" s="10">
+        <v>764791260</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>799</v>
       </c>
@@ -11240,7 +12323,7 @@
       <c r="D199" t="s">
         <v>801</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="13" t="s">
         <v>802</v>
       </c>
       <c r="F199" s="2" t="s">
@@ -11249,11 +12332,14 @@
       <c r="G199">
         <v>198</v>
       </c>
-      <c r="H199" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H199" s="11">
+        <v>763982056</v>
+      </c>
+      <c r="I199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>794</v>
       </c>
@@ -11266,7 +12352,7 @@
       <c r="D200" t="s">
         <v>796</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="13" t="s">
         <v>797</v>
       </c>
       <c r="F200" s="2" t="s">
@@ -11275,8 +12361,14 @@
       <c r="G200">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H200" s="11">
+        <v>763982056</v>
+      </c>
+      <c r="I200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1405</v>
       </c>
@@ -11298,8 +12390,14 @@
       <c r="G201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <v>375450439</v>
+      </c>
+      <c r="I201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1136</v>
       </c>
@@ -11321,8 +12419,14 @@
       <c r="G202">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <v>268204421</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>692</v>
       </c>
@@ -11335,7 +12439,7 @@
       <c r="D203" t="s">
         <v>694</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="13" t="s">
         <v>695</v>
       </c>
       <c r="F203" s="2" t="s">
@@ -11344,8 +12448,14 @@
       <c r="G203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H203" s="9">
+        <v>763395383</v>
+      </c>
+      <c r="I203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>697</v>
       </c>
@@ -11358,7 +12468,7 @@
       <c r="D204" t="s">
         <v>699</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="13" t="s">
         <v>700</v>
       </c>
       <c r="F204" s="2" t="s">
@@ -11367,8 +12477,14 @@
       <c r="G204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H204" s="9">
+        <v>763395383</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>677</v>
       </c>
@@ -11390,8 +12506,14 @@
       <c r="G205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H205" s="10">
+        <v>763820215</v>
+      </c>
+      <c r="I205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>573</v>
       </c>
@@ -11413,8 +12535,14 @@
       <c r="G206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H206" s="2">
+        <v>722859603</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>593</v>
       </c>
@@ -11436,8 +12564,14 @@
       <c r="G207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H207" s="10">
+        <v>868454789</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>759</v>
       </c>
@@ -11459,8 +12593,14 @@
       <c r="G208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H208" s="2">
+        <v>764285508</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>852</v>
       </c>
@@ -11482,11 +12622,14 @@
       <c r="G209">
         <v>208</v>
       </c>
-      <c r="H209" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H209" s="10">
+        <v>764508039</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>847</v>
       </c>
@@ -11508,11 +12651,14 @@
       <c r="G210">
         <v>209</v>
       </c>
-      <c r="H210" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H210" s="10">
+        <v>764508039</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>504</v>
       </c>
@@ -11534,8 +12680,14 @@
       <c r="G211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <v>360880230</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1783</v>
       </c>
@@ -11557,8 +12709,14 @@
       <c r="G212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H212" s="2">
+        <v>159753524</v>
+      </c>
+      <c r="I212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1778</v>
       </c>
@@ -11580,8 +12738,14 @@
       <c r="G213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H213" s="2">
+        <v>159753524</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>578</v>
       </c>
@@ -11603,8 +12767,14 @@
       <c r="G214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H214" s="2">
+        <v>158802708</v>
+      </c>
+      <c r="I214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1450</v>
       </c>
@@ -11626,8 +12796,14 @@
       <c r="G215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H215" s="2">
+        <v>159389382</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>687</v>
       </c>
@@ -11649,8 +12825,14 @@
       <c r="G216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <v>159288231</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1356</v>
       </c>
@@ -11672,8 +12854,14 @@
       <c r="G217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H217" s="9">
+        <v>159227541</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>973</v>
       </c>
@@ -11695,8 +12883,14 @@
       <c r="G218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H218" s="2">
+        <v>158944319</v>
+      </c>
+      <c r="I218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1106</v>
       </c>
@@ -11718,8 +12912,14 @@
       <c r="G219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H219" s="2">
+        <v>159207311</v>
+      </c>
+      <c r="I219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>948</v>
       </c>
@@ -11741,8 +12941,14 @@
       <c r="G220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H220" s="2">
+        <v>160319967</v>
+      </c>
+      <c r="I220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>779</v>
       </c>
@@ -11764,8 +12970,14 @@
       <c r="G221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H221" s="2">
+        <v>159268001</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1401</v>
       </c>
@@ -11787,11 +12999,14 @@
       <c r="G222">
         <v>221</v>
       </c>
-      <c r="H222" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H222" s="2">
+        <v>764366428</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1396</v>
       </c>
@@ -11813,11 +13028,14 @@
       <c r="G223">
         <v>222</v>
       </c>
-      <c r="H223" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H223" s="2">
+        <v>764366428</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>774</v>
       </c>
@@ -11839,8 +13057,14 @@
       <c r="G224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="10">
+        <v>305070461</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1002</v>
       </c>
@@ -11862,8 +13086,14 @@
       <c r="G225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="12">
+        <v>884797910</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1141</v>
       </c>
@@ -11885,8 +13115,14 @@
       <c r="G226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="2">
+        <v>525622796</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1126</v>
       </c>
@@ -11908,8 +13144,14 @@
       <c r="G227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="10">
+        <v>612472597</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>812</v>
       </c>
@@ -11931,8 +13173,14 @@
       <c r="G228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="10">
+        <v>550534656</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>968</v>
       </c>
@@ -11954,8 +13202,14 @@
       <c r="G229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="9">
+        <v>763921366</v>
+      </c>
+      <c r="I229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>769</v>
       </c>
@@ -11977,8 +13231,14 @@
       <c r="G230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="2">
+        <v>764467579</v>
+      </c>
+      <c r="I230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>784</v>
       </c>
@@ -12000,8 +13260,14 @@
       <c r="G231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="11">
+        <v>765094712</v>
+      </c>
+      <c r="I231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>415</v>
       </c>
@@ -12023,8 +13289,14 @@
       <c r="G232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232">
+        <v>763557224</v>
+      </c>
+      <c r="I232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1206</v>
       </c>
@@ -12046,8 +13318,14 @@
       <c r="G233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="8">
+        <v>765135172</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1548</v>
       </c>
@@ -12069,8 +13347,14 @@
       <c r="G234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="11">
+        <v>686765762</v>
+      </c>
+      <c r="I234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1509</v>
       </c>
@@ -12092,8 +13376,14 @@
       <c r="G235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="9">
+        <v>604812005</v>
+      </c>
+      <c r="I235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1480</v>
       </c>
@@ -12115,8 +13405,14 @@
       <c r="G236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="11">
+        <v>638754422</v>
+      </c>
+      <c r="I236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>524</v>
       </c>
@@ -12138,8 +13434,14 @@
       <c r="G237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="2">
+        <v>160502038</v>
+      </c>
+      <c r="I237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>871</v>
       </c>
@@ -12161,8 +13463,14 @@
       <c r="G238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="9">
+        <v>675950834</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>876</v>
       </c>
@@ -12184,8 +13492,14 @@
       <c r="G239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="9">
+        <v>675950834</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1171</v>
       </c>
@@ -12207,8 +13521,14 @@
       <c r="G240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H240" s="9">
+        <v>765216093</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1186</v>
       </c>
@@ -12230,8 +13550,14 @@
       <c r="G241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H241" s="11">
+        <v>765539774</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>435</v>
       </c>
@@ -12253,11 +13579,14 @@
       <c r="G242">
         <v>241</v>
       </c>
-      <c r="H242" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H242" s="9">
+        <v>159227541</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>549</v>
       </c>
@@ -12279,11 +13608,14 @@
       <c r="G243">
         <v>242</v>
       </c>
-      <c r="H243" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H243" s="2">
+        <v>159389382</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>110</v>
       </c>
@@ -12305,8 +13637,14 @@
       <c r="G244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H244" s="2">
+        <v>159753524</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>307</v>
       </c>
@@ -12328,8 +13666,14 @@
       <c r="G245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H245" s="9">
+        <v>158883629</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1533</v>
       </c>
@@ -12351,8 +13695,14 @@
       <c r="G246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H246" s="2">
+        <v>257905678</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1430</v>
       </c>
@@ -12374,8 +13724,14 @@
       <c r="G247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H247" s="2">
+        <v>763721271</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1460</v>
       </c>
@@ -12397,8 +13753,14 @@
       <c r="G248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H248" s="9">
+        <v>866653606</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>657</v>
       </c>
@@ -12420,8 +13782,14 @@
       <c r="G249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H249" s="2">
+        <v>508703490</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>721</v>
       </c>
@@ -12443,8 +13811,14 @@
       <c r="G250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H250" s="2">
+        <v>765195863</v>
+      </c>
+      <c r="I250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>716</v>
       </c>
@@ -12466,8 +13840,14 @@
       <c r="G251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H251" s="2">
+        <v>765195863</v>
+      </c>
+      <c r="I251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>494</v>
       </c>
@@ -12489,8 +13869,14 @@
       <c r="G252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H252" s="2">
+        <v>103092734</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>509</v>
       </c>
@@ -12512,8 +13898,14 @@
       <c r="G253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H253" s="2">
+        <v>764649650</v>
+      </c>
+      <c r="I253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1161</v>
       </c>
@@ -12535,8 +13927,14 @@
       <c r="G254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H254">
+        <v>763719065</v>
+      </c>
+      <c r="I254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>890</v>
       </c>
@@ -12558,8 +13956,14 @@
       <c r="G255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H255" s="2">
+        <v>765377934</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1302</v>
       </c>
@@ -12581,8 +13985,14 @@
       <c r="G256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H256" s="8">
+        <v>765317243</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>420</v>
       </c>
@@ -12604,8 +14014,14 @@
       <c r="G257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H257" s="10">
+        <v>765519544</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>475</v>
       </c>
@@ -12627,8 +14043,14 @@
       <c r="G258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H258" s="9">
+        <v>823052294</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>470</v>
       </c>
@@ -12650,8 +14072,14 @@
       <c r="G259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H259" s="9">
+        <v>823052294</v>
+      </c>
+      <c r="I259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>564</v>
       </c>
@@ -12673,8 +14101,14 @@
       <c r="G260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H260" s="12">
+        <v>765337473</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>559</v>
       </c>
@@ -12696,8 +14130,14 @@
       <c r="G261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H261" s="12">
+        <v>765337473</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1504</v>
       </c>
@@ -12719,8 +14159,14 @@
       <c r="G262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H262" s="9">
+        <v>604812005</v>
+      </c>
+      <c r="I262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1578</v>
       </c>
@@ -12742,8 +14188,14 @@
       <c r="G263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H263">
+        <v>336497421</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1420</v>
       </c>
@@ -12765,8 +14217,14 @@
       <c r="G264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <v>368533040</v>
+      </c>
+      <c r="I264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1052</v>
       </c>
@@ -12788,8 +14246,14 @@
       <c r="G265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H265">
+        <v>160967330</v>
+      </c>
+      <c r="I265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1366</v>
       </c>
@@ -12811,8 +14275,14 @@
       <c r="G266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H266">
+        <v>650853796</v>
+      </c>
+      <c r="I266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1032</v>
       </c>
@@ -12834,8 +14304,14 @@
       <c r="G267">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H267" s="2">
+        <v>646253328</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1042</v>
       </c>
@@ -12857,11 +14333,14 @@
       <c r="G268">
         <v>267</v>
       </c>
-      <c r="H268" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H268" s="9">
+        <v>535376874</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1027</v>
       </c>
@@ -12883,11 +14362,14 @@
       <c r="G269">
         <v>268</v>
       </c>
-      <c r="H269" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H269" s="11">
+        <v>316129862</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1445</v>
       </c>
@@ -12909,8 +14391,14 @@
       <c r="G270">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H270" s="2">
+        <v>932979671</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1543</v>
       </c>
@@ -12932,11 +14420,14 @@
       <c r="G271">
         <v>270</v>
       </c>
-      <c r="H271" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H271" s="2">
+        <v>646253328</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1391</v>
       </c>
@@ -12958,11 +14449,14 @@
       <c r="G272">
         <v>271</v>
       </c>
-      <c r="H272" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="9">
+        <v>866653606</v>
+      </c>
+      <c r="I272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1558</v>
       </c>
@@ -12984,8 +14478,14 @@
       <c r="G273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="2">
+        <v>257905678</v>
+      </c>
+      <c r="I273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1415</v>
       </c>
@@ -13007,8 +14507,14 @@
       <c r="G274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="2">
+        <v>763721271</v>
+      </c>
+      <c r="I274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1455</v>
       </c>
@@ -13030,8 +14536,14 @@
       <c r="G275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="9">
+        <v>441369442</v>
+      </c>
+      <c r="I275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1386</v>
       </c>
@@ -13053,8 +14565,14 @@
       <c r="G276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="2">
+        <v>646253328</v>
+      </c>
+      <c r="I276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1593</v>
       </c>
@@ -13076,8 +14594,14 @@
       <c r="G277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="2">
+        <v>246515023</v>
+      </c>
+      <c r="I277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>499</v>
       </c>
@@ -13099,8 +14623,14 @@
       <c r="G278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="2">
+        <v>765013792</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>534</v>
       </c>
@@ -13122,8 +14652,14 @@
       <c r="G279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="8">
+        <v>884419868</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>963</v>
       </c>
@@ -13145,8 +14681,14 @@
       <c r="G280">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="2">
+        <v>338793263</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>837</v>
       </c>
@@ -13168,8 +14710,14 @@
       <c r="G281">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281">
+        <v>234447334</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1057</v>
       </c>
@@ -13191,8 +14739,14 @@
       <c r="G282">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="10">
+        <v>765074482</v>
+      </c>
+      <c r="I282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>803</v>
       </c>
@@ -13214,8 +14768,14 @@
       <c r="G283">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="10">
+        <v>857980665</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>808</v>
       </c>
@@ -13237,8 +14797,14 @@
       <c r="G284">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="10">
+        <v>857980665</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>465</v>
       </c>
@@ -13260,8 +14826,14 @@
       <c r="G285">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="2">
+        <v>370027359</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>484</v>
       </c>
@@ -13283,8 +14855,14 @@
       <c r="G286">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="9">
+        <v>355657046</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>900</v>
       </c>
@@ -13306,8 +14884,14 @@
       <c r="G287">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="10">
+        <v>305070461</v>
+      </c>
+      <c r="I287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1283</v>
       </c>
@@ -13329,8 +14913,14 @@
       <c r="G288">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H288" s="2">
+        <v>663835652</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1116</v>
       </c>
@@ -13352,8 +14942,14 @@
       <c r="G289">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H289" s="9">
+        <v>765034022</v>
+      </c>
+      <c r="I289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1216</v>
       </c>
@@ -13375,8 +14971,14 @@
       <c r="G290">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H290" s="2">
+        <v>525622796</v>
+      </c>
+      <c r="I290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>997</v>
       </c>
@@ -13398,8 +15000,14 @@
       <c r="G291">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H291" s="8">
+        <v>765135172</v>
+      </c>
+      <c r="I291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1273</v>
       </c>
@@ -13421,8 +15029,14 @@
       <c r="G292">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H292">
+        <v>208027353</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>928</v>
       </c>
@@ -13444,8 +15058,14 @@
       <c r="G293">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H293">
+        <v>953045535</v>
+      </c>
+      <c r="I293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>618</v>
       </c>
@@ -13467,8 +15087,14 @@
       <c r="G294">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H294" s="10">
+        <v>550534656</v>
+      </c>
+      <c r="I294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>430</v>
       </c>
@@ -13490,8 +15116,14 @@
       <c r="G295">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H295" s="10">
+        <v>868454789</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>648</v>
       </c>
@@ -13513,8 +15145,14 @@
       <c r="G296">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H296" s="2">
+        <v>764366428</v>
+      </c>
+      <c r="I296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>643</v>
       </c>
@@ -13536,8 +15174,14 @@
       <c r="G297">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H297" s="2">
+        <v>764366428</v>
+      </c>
+      <c r="I297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1254</v>
       </c>
@@ -13559,8 +15203,14 @@
       <c r="G298">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H298" s="9">
+        <v>823052294</v>
+      </c>
+      <c r="I298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1259</v>
       </c>
@@ -13582,8 +15232,14 @@
       <c r="G299">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H299" s="9">
+        <v>823052294</v>
+      </c>
+      <c r="I299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>425</v>
       </c>
@@ -13605,8 +15261,14 @@
       <c r="G300">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H300" s="10">
+        <v>765256553</v>
+      </c>
+      <c r="I300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>915</v>
       </c>
@@ -13619,7 +15281,7 @@
       <c r="D301" t="s">
         <v>917</v>
       </c>
-      <c r="E301" s="2" t="s">
+      <c r="E301" s="13" t="s">
         <v>918</v>
       </c>
       <c r="F301" s="2" t="s">
@@ -13628,11 +15290,14 @@
       <c r="G301">
         <v>300</v>
       </c>
-      <c r="H301" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H301" s="10">
+        <v>764508039</v>
+      </c>
+      <c r="I301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>910</v>
       </c>
@@ -13645,7 +15310,7 @@
       <c r="D302" t="s">
         <v>912</v>
       </c>
-      <c r="E302" s="2" t="s">
+      <c r="E302" s="13" t="s">
         <v>913</v>
       </c>
       <c r="F302" s="2" t="s">
@@ -13654,11 +15319,14 @@
       <c r="G302">
         <v>301</v>
       </c>
-      <c r="H302" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H302" s="10">
+        <v>764508039</v>
+      </c>
+      <c r="I302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1097</v>
       </c>
@@ -13680,8 +15348,14 @@
       <c r="G303">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H303">
+        <v>147406386</v>
+      </c>
+      <c r="I303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1102</v>
       </c>
@@ -13703,8 +15377,14 @@
       <c r="G304">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304">
+        <v>147406386</v>
+      </c>
+      <c r="I304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>519</v>
       </c>
@@ -13726,8 +15406,14 @@
       <c r="G305">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="10">
+        <v>682102541</v>
+      </c>
+      <c r="I305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>880</v>
       </c>
@@ -13749,8 +15435,14 @@
       <c r="G306">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="2">
+        <v>764062976</v>
+      </c>
+      <c r="I306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1226</v>
       </c>
@@ -13772,8 +15464,14 @@
       <c r="G307">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="12">
+        <v>884797910</v>
+      </c>
+      <c r="I307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1196</v>
       </c>
@@ -13795,8 +15493,14 @@
       <c r="G308">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="12">
+        <v>765155402</v>
+      </c>
+      <c r="I308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1012</v>
       </c>
@@ -13818,8 +15522,14 @@
       <c r="G309">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="2">
+        <v>275382046</v>
+      </c>
+      <c r="I309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1245</v>
       </c>
@@ -13832,7 +15542,7 @@
       <c r="D310" t="s">
         <v>1247</v>
       </c>
-      <c r="E310" s="2" t="s">
+      <c r="E310" s="13" t="s">
         <v>1248</v>
       </c>
       <c r="F310" s="2" t="s">
@@ -13841,8 +15551,14 @@
       <c r="G310">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="9">
+        <v>765216093</v>
+      </c>
+      <c r="I310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1250</v>
       </c>
@@ -13855,7 +15571,7 @@
       <c r="D311" t="s">
         <v>1252</v>
       </c>
-      <c r="E311" s="2" t="s">
+      <c r="E311" s="13" t="s">
         <v>1253</v>
       </c>
       <c r="F311" s="2" t="s">
@@ -13864,8 +15580,14 @@
       <c r="G311">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="9">
+        <v>765216093</v>
+      </c>
+      <c r="I311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>905</v>
       </c>
@@ -13887,8 +15609,14 @@
       <c r="G312">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" s="9">
+        <v>765701615</v>
+      </c>
+      <c r="I312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>730</v>
       </c>
@@ -13910,8 +15638,14 @@
       <c r="G313">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" s="9">
+        <v>675950834</v>
+      </c>
+      <c r="I313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>740</v>
       </c>
@@ -13933,8 +15667,14 @@
       <c r="G314">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" s="11">
+        <v>765539774</v>
+      </c>
+      <c r="I314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>735</v>
       </c>
@@ -13956,8 +15696,14 @@
       <c r="G315">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" s="11">
+        <v>765539774</v>
+      </c>
+      <c r="I315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -13979,8 +15725,14 @@
       <c r="G316">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" s="12">
+        <v>884797910</v>
+      </c>
+      <c r="I316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>662</v>
       </c>
@@ -14002,8 +15754,14 @@
       <c r="G317">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317">
+        <v>159733294</v>
+      </c>
+      <c r="I317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>672</v>
       </c>
@@ -14025,8 +15783,14 @@
       <c r="G318">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" s="2">
+        <v>160582958</v>
+      </c>
+      <c r="I318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1241</v>
       </c>
@@ -14039,7 +15803,7 @@
       <c r="D319" t="s">
         <v>1243</v>
       </c>
-      <c r="E319" s="2" t="s">
+      <c r="E319" s="13" t="s">
         <v>1244</v>
       </c>
       <c r="F319" s="2" t="s">
@@ -14048,8 +15812,14 @@
       <c r="G319">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" s="2">
+        <v>863126187</v>
+      </c>
+      <c r="I319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1236</v>
       </c>
@@ -14062,7 +15832,7 @@
       <c r="D320" t="s">
         <v>1238</v>
       </c>
-      <c r="E320" s="2" t="s">
+      <c r="E320" s="13" t="s">
         <v>1239</v>
       </c>
       <c r="F320" s="2" t="s">
@@ -14070,6 +15840,12 @@
       </c>
       <c r="G320">
         <v>319</v>
+      </c>
+      <c r="H320" s="2">
+        <v>863126187</v>
+      </c>
+      <c r="I320">
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -14094,6 +15870,12 @@
       <c r="G321">
         <v>320</v>
       </c>
+      <c r="H321" s="10">
+        <v>682102541</v>
+      </c>
+      <c r="I321">
+        <v>3</v>
+      </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
@@ -14117,6 +15899,12 @@
       <c r="G322">
         <v>321</v>
       </c>
+      <c r="H322" s="2">
+        <v>663835652</v>
+      </c>
+      <c r="I322">
+        <v>3</v>
+      </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
@@ -14140,6 +15928,12 @@
       <c r="G323">
         <v>322</v>
       </c>
+      <c r="H323" s="2">
+        <v>765013792</v>
+      </c>
+      <c r="I323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
@@ -14163,6 +15957,12 @@
       <c r="G324">
         <v>323</v>
       </c>
+      <c r="H324" s="2">
+        <v>275382046</v>
+      </c>
+      <c r="I324">
+        <v>3</v>
+      </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
@@ -14186,6 +15986,12 @@
       <c r="G325">
         <v>324</v>
       </c>
+      <c r="H325" s="2">
+        <v>275382046</v>
+      </c>
+      <c r="I325">
+        <v>3</v>
+      </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
@@ -14209,6 +16015,12 @@
       <c r="G326">
         <v>325</v>
       </c>
+      <c r="H326" s="10">
+        <v>868454789</v>
+      </c>
+      <c r="I326">
+        <v>3</v>
+      </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
@@ -14232,6 +16044,12 @@
       <c r="G327">
         <v>326</v>
       </c>
+      <c r="H327">
+        <v>147406386</v>
+      </c>
+      <c r="I327">
+        <v>3</v>
+      </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
@@ -14255,6 +16073,12 @@
       <c r="G328">
         <v>327</v>
       </c>
+      <c r="H328" s="2">
+        <v>765377934</v>
+      </c>
+      <c r="I328">
+        <v>3</v>
+      </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
@@ -14278,6 +16102,12 @@
       <c r="G329">
         <v>328</v>
       </c>
+      <c r="H329" s="2">
+        <v>765377934</v>
+      </c>
+      <c r="I329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
@@ -14301,6 +16131,12 @@
       <c r="G330">
         <v>329</v>
       </c>
+      <c r="H330" s="9">
+        <v>765398164</v>
+      </c>
+      <c r="I330">
+        <v>2</v>
+      </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
@@ -14324,6 +16160,12 @@
       <c r="G331">
         <v>330</v>
       </c>
+      <c r="H331" s="2">
+        <v>370027359</v>
+      </c>
+      <c r="I331">
+        <v>3</v>
+      </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
@@ -14347,6 +16189,12 @@
       <c r="G332">
         <v>331</v>
       </c>
+      <c r="H332" s="10">
+        <v>765519544</v>
+      </c>
+      <c r="I332">
+        <v>3</v>
+      </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
@@ -14370,6 +16218,12 @@
       <c r="G333">
         <v>332</v>
       </c>
+      <c r="H333" s="10">
+        <v>765519544</v>
+      </c>
+      <c r="I333">
+        <v>3</v>
+      </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
@@ -14393,6 +16247,12 @@
       <c r="G334">
         <v>333</v>
       </c>
+      <c r="H334" s="12">
+        <v>765337473</v>
+      </c>
+      <c r="I334">
+        <v>3</v>
+      </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
@@ -14416,6 +16276,12 @@
       <c r="G335">
         <v>334</v>
       </c>
+      <c r="H335" s="2">
+        <v>508703490</v>
+      </c>
+      <c r="I335">
+        <v>3</v>
+      </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
@@ -14439,14 +16305,14 @@
       <c r="G336">
         <v>335</v>
       </c>
-      <c r="H336" t="s">
-        <v>1863</v>
-      </c>
-      <c r="I336" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H336" s="2">
+        <v>765620695</v>
+      </c>
+      <c r="I336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>568</v>
       </c>
@@ -14468,11 +16334,14 @@
       <c r="G337">
         <v>336</v>
       </c>
-      <c r="H337" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H337">
+        <v>516889361</v>
+      </c>
+      <c r="I337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1176</v>
       </c>
@@ -14494,8 +16363,14 @@
       <c r="G338">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H338" s="2">
+        <v>763901136</v>
+      </c>
+      <c r="I338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1263</v>
       </c>
@@ -14517,11 +16392,14 @@
       <c r="G339">
         <v>338</v>
       </c>
-      <c r="H339" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H339" s="2">
+        <v>103092734</v>
+      </c>
+      <c r="I339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1062</v>
       </c>
@@ -14543,11 +16421,14 @@
       <c r="G340">
         <v>339</v>
       </c>
-      <c r="H340" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H340" s="10">
+        <v>184349034</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1278</v>
       </c>
@@ -14569,8 +16450,14 @@
       <c r="G341">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H341" s="11">
+        <v>875002022</v>
+      </c>
+      <c r="I341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1181</v>
       </c>
@@ -14592,8 +16479,14 @@
       <c r="G342">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H342" s="11">
+        <v>765276783</v>
+      </c>
+      <c r="I342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>613</v>
       </c>
@@ -14615,8 +16508,14 @@
       <c r="G343">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H343" s="10">
+        <v>305070461</v>
+      </c>
+      <c r="I343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>667</v>
       </c>
@@ -14638,8 +16537,14 @@
       <c r="G344">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H344" s="8">
+        <v>884419868</v>
+      </c>
+      <c r="I344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>701</v>
       </c>
@@ -14661,8 +16566,14 @@
       <c r="G345">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H345">
+        <v>658594300</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1007</v>
       </c>
@@ -14684,8 +16595,14 @@
       <c r="G346">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H346" s="9">
+        <v>355657046</v>
+      </c>
+      <c r="I346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>603</v>
       </c>
@@ -14707,8 +16624,14 @@
       <c r="G347">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H347">
+        <v>250593475</v>
+      </c>
+      <c r="I347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>817</v>
       </c>
@@ -14730,8 +16653,14 @@
       <c r="G348">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H348" s="9">
+        <v>115629832</v>
+      </c>
+      <c r="I348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>554</v>
       </c>
@@ -14753,8 +16682,14 @@
       <c r="G349">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H349" s="11">
+        <v>765276783</v>
+      </c>
+      <c r="I349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>744</v>
       </c>
@@ -14776,8 +16711,14 @@
       <c r="G350">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H350" s="10">
+        <v>612472597</v>
+      </c>
+      <c r="I350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1489</v>
       </c>
@@ -14799,8 +16740,14 @@
       <c r="G351">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H351" s="2">
+        <v>863126187</v>
+      </c>
+      <c r="I351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1268</v>
       </c>
@@ -14822,8 +16769,14 @@
       <c r="G352">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352">
+        <v>764245047</v>
+      </c>
+      <c r="I352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1146</v>
       </c>
@@ -14845,8 +16798,14 @@
       <c r="G353">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" s="9">
+        <v>764750800</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1131</v>
       </c>
@@ -14868,8 +16827,14 @@
       <c r="G354">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" s="10">
+        <v>764791260</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1151</v>
       </c>
@@ -14891,8 +16856,14 @@
       <c r="G355">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355">
+        <v>764872181</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1307</v>
       </c>
@@ -14914,8 +16885,14 @@
       <c r="G356">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356">
+        <v>764953101</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1346</v>
       </c>
@@ -14937,8 +16914,14 @@
       <c r="G357">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" s="2">
+        <v>436584885</v>
+      </c>
+      <c r="I357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1336</v>
       </c>
@@ -14960,8 +16943,14 @@
       <c r="G358">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" s="10">
+        <v>797461496</v>
+      </c>
+      <c r="I358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1376</v>
       </c>
@@ -14983,8 +16972,14 @@
       <c r="G359">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" s="10">
+        <v>797461496</v>
+      </c>
+      <c r="I359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1470</v>
       </c>
@@ -15006,8 +17001,14 @@
       <c r="G360">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" s="2">
+        <v>162469177</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1410</v>
       </c>
@@ -15029,8 +17030,14 @@
       <c r="G361">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" s="2">
+        <v>932979671</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1494</v>
       </c>
@@ -15052,8 +17059,14 @@
       <c r="G362">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" s="9">
+        <v>115629832</v>
+      </c>
+      <c r="I362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1553</v>
       </c>
@@ -15075,8 +17088,14 @@
       <c r="G363">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" s="10">
+        <v>486505039</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1465</v>
       </c>
@@ -15098,8 +17117,14 @@
       <c r="G364">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364" s="2">
+        <v>162469177</v>
+      </c>
+      <c r="I364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1381</v>
       </c>
@@ -15121,8 +17146,14 @@
       <c r="G365">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365" s="10">
+        <v>486505039</v>
+      </c>
+      <c r="I365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1341</v>
       </c>
@@ -15144,8 +17175,14 @@
       <c r="G366">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366" s="2">
+        <v>596625983</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1538</v>
       </c>
@@ -15167,8 +17204,14 @@
       <c r="G367">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367" s="9">
+        <v>535376874</v>
+      </c>
+      <c r="I367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1435</v>
       </c>
@@ -15190,8 +17233,14 @@
       <c r="G368">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H368">
+        <v>188816475</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1371</v>
       </c>
@@ -15213,8 +17262,14 @@
       <c r="G369">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H369" s="2">
+        <v>596625983</v>
+      </c>
+      <c r="I369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1047</v>
       </c>
@@ -15236,8 +17291,14 @@
       <c r="G370">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H370">
+        <v>195044680</v>
+      </c>
+      <c r="I370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1351</v>
       </c>
@@ -15259,11 +17320,14 @@
       <c r="G371">
         <v>370</v>
       </c>
-      <c r="H371" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H371" s="2">
+        <v>596625983</v>
+      </c>
+      <c r="I371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1583</v>
       </c>
@@ -15285,11 +17349,14 @@
       <c r="G372">
         <v>371</v>
       </c>
-      <c r="H372" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H372" s="11">
+        <v>316129862</v>
+      </c>
+      <c r="I372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1588</v>
       </c>
@@ -15311,11 +17378,14 @@
       <c r="G373">
         <v>372</v>
       </c>
-      <c r="H373" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H373" s="2">
+        <v>436584885</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1475</v>
       </c>
@@ -15337,11 +17407,14 @@
       <c r="G374">
         <v>373</v>
       </c>
-      <c r="H374" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H374" s="9">
+        <v>182518224</v>
+      </c>
+      <c r="I374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1037</v>
       </c>
@@ -15363,8 +17436,14 @@
       <c r="G375">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H375" s="9">
+        <v>182518224</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1523</v>
       </c>
@@ -15386,8 +17465,14 @@
       <c r="G376">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H376">
+        <v>886389417</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1573</v>
       </c>
@@ -15409,8 +17494,14 @@
       <c r="G377">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H377">
+        <v>366487741</v>
+      </c>
+      <c r="I377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1568</v>
       </c>
@@ -15432,8 +17523,14 @@
       <c r="G378">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H378" s="9">
+        <v>441369442</v>
+      </c>
+      <c r="I378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1485</v>
       </c>
@@ -15455,8 +17552,14 @@
       <c r="G379">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H379" s="11">
+        <v>638754422</v>
+      </c>
+      <c r="I379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1528</v>
       </c>
@@ -15478,13 +17581,20 @@
       <c r="G380">
         <v>379</v>
       </c>
+      <c r="H380">
+        <v>160987560</v>
+      </c>
+      <c r="I380">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G380">
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I380">
       <sortCondition ref="G1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HMP1-2_oral_file_manifest_sample_ordered.xlsx
+++ b/HMP1-2_oral_file_manifest_sample_ordered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5261b2f2f3e51194/Desktop/GitHub/demo_for_ccgb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="13_ncr:40009_{CBA161DB-F2C7-4F07-B72D-33F021730ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0191DB2-5627-460E-B6D9-CB7B5E8DD035}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="13_ncr:40009_{CBA161DB-F2C7-4F07-B72D-33F021730ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2F3BB9-C8BA-488F-9091-5880A5F3C57D}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="3660" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HMP1-2_oral_file_manifest_sampl" sheetId="1" r:id="rId1"/>
@@ -5632,7 +5632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5769,6 +5769,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6137,7 +6145,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6180,8 +6188,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -6196,8 +6205,9 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -6231,6 +6241,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -6554,7 +6565,7 @@
   <dimension ref="A1:I380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6607,7 +6618,7 @@
       <c r="C2">
         <v>275812894</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E2" t="s">
@@ -17594,7 +17605,10 @@
       <sortCondition ref="G1"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{021BC586-395E-4C4F-9461-3E8731224CB6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>